--- a/assets/upload_format.xlsx
+++ b/assets/upload_format.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>가맹점관리번호</t>
   </si>
   <si>
     <t>사업자등록번호</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8210201545</t>
   </si>
 </sst>
 </file>
@@ -38,9 +44,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -57,7 +63,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -80,13 +86,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -94,6 +187,33 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1209,15 +1329,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.85" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.5078" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9766" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
@@ -1227,46 +1348,83 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="14.6" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.6" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.6" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="14.6" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="14.6" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="14.6" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="14.6" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="14.6" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="14.6" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="14.6" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
